--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3230.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3230.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.409309744035438</v>
+        <v>1.210793852806091</v>
       </c>
       <c r="B1">
-        <v>2.903840744324377</v>
+        <v>1.470886588096619</v>
       </c>
       <c r="C1">
-        <v>4.064366836791883</v>
+        <v>1.832079887390137</v>
       </c>
       <c r="D1">
-        <v>3.376810773510223</v>
+        <v>1.672866702079773</v>
       </c>
       <c r="E1">
-        <v>1.215808521596751</v>
+        <v>1.550372362136841</v>
       </c>
     </row>
   </sheetData>
